--- a/Leerplanillacupos/output_030323.xlsx
+++ b/Leerplanillacupos/output_030323.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -527,10 +531,8 @@
           <t>æ</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>030323</t>
-        </is>
+      <c r="J2" s="2" t="n">
+        <v>44988</v>
       </c>
     </row>
     <row r="3">
@@ -575,10 +577,8 @@
           <t>æ</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>030323</t>
-        </is>
+      <c r="J3" s="2" t="n">
+        <v>44988</v>
       </c>
     </row>
     <row r="4">
@@ -623,10 +623,8 @@
           <t>æ</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>030323</t>
-        </is>
+      <c r="J4" s="2" t="n">
+        <v>44988</v>
       </c>
     </row>
     <row r="5">
@@ -671,10 +669,8 @@
           <t>æ</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>030323</t>
-        </is>
+      <c r="J5" s="2" t="n">
+        <v>44988</v>
       </c>
     </row>
     <row r="6">
@@ -719,10 +715,8 @@
           <t>æ</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>030323</t>
-        </is>
+      <c r="J6" s="2" t="n">
+        <v>44988</v>
       </c>
     </row>
     <row r="7">
@@ -767,10 +761,8 @@
           <t>28</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>030323</t>
-        </is>
+      <c r="J7" s="2" t="n">
+        <v>44988</v>
       </c>
     </row>
     <row r="8">
@@ -815,10 +807,8 @@
           <t>æ</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>030323</t>
-        </is>
+      <c r="J8" s="2" t="n">
+        <v>44988</v>
       </c>
     </row>
     <row r="9">
@@ -863,10 +853,8 @@
           <t>æ</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>030323</t>
-        </is>
+      <c r="J9" s="2" t="n">
+        <v>44988</v>
       </c>
     </row>
     <row r="10">
@@ -911,10 +899,8 @@
           <t>æ</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>030323</t>
-        </is>
+      <c r="J10" s="2" t="n">
+        <v>44988</v>
       </c>
     </row>
     <row r="11">
@@ -959,10 +945,8 @@
           <t>æ</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>030323</t>
-        </is>
+      <c r="J11" s="2" t="n">
+        <v>44988</v>
       </c>
     </row>
     <row r="12">
@@ -1007,10 +991,8 @@
           <t>æ</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>030323</t>
-        </is>
+      <c r="J12" s="2" t="n">
+        <v>44988</v>
       </c>
     </row>
     <row r="13">
@@ -1055,10 +1037,8 @@
           <t>æ</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>030323</t>
-        </is>
+      <c r="J13" s="2" t="n">
+        <v>44988</v>
       </c>
     </row>
     <row r="14">
@@ -1103,10 +1083,8 @@
           <t>æ</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>030323</t>
-        </is>
+      <c r="J14" s="2" t="n">
+        <v>44988</v>
       </c>
     </row>
     <row r="15">
@@ -1151,10 +1129,8 @@
           <t>æ</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>030323</t>
-        </is>
+      <c r="J15" s="2" t="n">
+        <v>44988</v>
       </c>
     </row>
     <row r="16">
@@ -1199,10 +1175,8 @@
           <t>35</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>030323</t>
-        </is>
+      <c r="J16" s="2" t="n">
+        <v>44988</v>
       </c>
     </row>
     <row r="17">
@@ -1247,10 +1221,8 @@
           <t>æ</t>
         </is>
       </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>030323</t>
-        </is>
+      <c r="J17" s="2" t="n">
+        <v>44988</v>
       </c>
     </row>
     <row r="18">
@@ -1295,10 +1267,8 @@
           <t>35</t>
         </is>
       </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>030323</t>
-        </is>
+      <c r="J18" s="2" t="n">
+        <v>44988</v>
       </c>
     </row>
     <row r="19">
@@ -1343,10 +1313,8 @@
           <t>30</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>030323</t>
-        </is>
+      <c r="J19" s="2" t="n">
+        <v>44988</v>
       </c>
     </row>
     <row r="20">
@@ -1391,10 +1359,8 @@
           <t>30</t>
         </is>
       </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>030323</t>
-        </is>
+      <c r="J20" s="2" t="n">
+        <v>44988</v>
       </c>
     </row>
     <row r="21">
@@ -1439,10 +1405,8 @@
           <t>33</t>
         </is>
       </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>030323</t>
-        </is>
+      <c r="J21" s="2" t="n">
+        <v>44988</v>
       </c>
     </row>
     <row r="22">
@@ -1487,10 +1451,8 @@
           <t>30</t>
         </is>
       </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>030323</t>
-        </is>
+      <c r="J22" s="2" t="n">
+        <v>44988</v>
       </c>
     </row>
     <row r="23">
@@ -1535,10 +1497,8 @@
           <t>30</t>
         </is>
       </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>030323</t>
-        </is>
+      <c r="J23" s="2" t="n">
+        <v>44988</v>
       </c>
     </row>
     <row r="24">
@@ -1583,10 +1543,8 @@
           <t>æ</t>
         </is>
       </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>030323</t>
-        </is>
+      <c r="J24" s="2" t="n">
+        <v>44988</v>
       </c>
     </row>
     <row r="25">
@@ -1631,10 +1589,8 @@
           <t>æ</t>
         </is>
       </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>030323</t>
-        </is>
+      <c r="J25" s="2" t="n">
+        <v>44988</v>
       </c>
     </row>
     <row r="26">
@@ -1679,10 +1635,8 @@
           <t>æ</t>
         </is>
       </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>030323</t>
-        </is>
+      <c r="J26" s="2" t="n">
+        <v>44988</v>
       </c>
     </row>
     <row r="27">
@@ -1727,10 +1681,8 @@
           <t>æ</t>
         </is>
       </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>030323</t>
-        </is>
+      <c r="J27" s="2" t="n">
+        <v>44988</v>
       </c>
     </row>
     <row r="28">
@@ -1775,10 +1727,8 @@
           <t>æ</t>
         </is>
       </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>030323</t>
-        </is>
+      <c r="J28" s="2" t="n">
+        <v>44988</v>
       </c>
     </row>
     <row r="29">
@@ -1823,10 +1773,8 @@
           <t>æ</t>
         </is>
       </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>030323</t>
-        </is>
+      <c r="J29" s="2" t="n">
+        <v>44988</v>
       </c>
     </row>
     <row r="30">
@@ -1871,10 +1819,8 @@
           <t>æ</t>
         </is>
       </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>030323</t>
-        </is>
+      <c r="J30" s="2" t="n">
+        <v>44988</v>
       </c>
     </row>
     <row r="31">
@@ -1919,10 +1865,8 @@
           <t>æ</t>
         </is>
       </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>030323</t>
-        </is>
+      <c r="J31" s="2" t="n">
+        <v>44988</v>
       </c>
     </row>
   </sheetData>

--- a/Leerplanillacupos/output_030323.xlsx
+++ b/Leerplanillacupos/output_030323.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
